--- a/biology/Botanique/Aralie_à_tige_nue/Aralie_à_tige_nue.xlsx
+++ b/biology/Botanique/Aralie_à_tige_nue/Aralie_à_tige_nue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aralie_%C3%A0_tige_nue</t>
+          <t>Aralie_à_tige_nue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aralia nudicaulis
 L'Aralie à tige nue (Aralia nudicaulis L., 1753) est une plante à fleur d'Amérique du Nord septentrionale et orientale qui atteint 30 à 60 cm avec un rhizome traçant souterrain.
-Au printemps le rhizome souterrain produit des feuilles composées qui sont grandes et finement dentées. Elle est aussi connue sous le nom d'aralie chassepareille et de salsepareille[1].
+Au printemps le rhizome souterrain produit des feuilles composées qui sont grandes et finement dentées. Elle est aussi connue sous le nom d'aralie chassepareille et de salsepareille.
 Les racines ont été utilisées comme substitut aux salsepareilles vraies (Smilax sp.) en herboristerie.
-Une étude menée en 2006 sur des cellules HeLa a montré qu'un extrait du rhizome de A. nudicaulis peut s'avérer efficace pour lutter contre le cancer du col utérin[2].
+Une étude menée en 2006 sur des cellules HeLa a montré qu'un extrait du rhizome de A. nudicaulis peut s'avérer efficace pour lutter contre le cancer du col utérin.
 </t>
         </is>
       </c>
